--- a/Data/2020_11_04.xlsx
+++ b/Data/2020_11_04.xlsx
@@ -17,9 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
-  <si>
-    <t xml:space="preserve">Daten des Coronavirussituationsberichts, Stand 2020-11-03 08:00 Uhr</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+  <si>
+    <t xml:space="preserve">Daten des Coronavirussituationsberichts, Stand 2020-11-04 08:00 Uhr</t>
   </si>
   <si>
     <t xml:space="preserve">Quelle: BAG/MT</t>
@@ -301,181 +301,160 @@
     <t xml:space="preserve">Inzidenz Quarantäne nach Einreise aus Risikoland</t>
   </si>
   <si>
-    <t xml:space="preserve">757</t>
+    <t xml:space="preserve">1685</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">1124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41</t>
+    <t xml:space="preserve">1140</t>
   </si>
   <si>
     <t xml:space="preserve">Keine aktuellen Daten gemeldet</t>
   </si>
   <si>
-    <t xml:space="preserve">4986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">860</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1590</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6880</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3061</t>
+    <t xml:space="preserve">363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">840</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1940</t>
+  </si>
+  <si>
+    <t xml:space="preserve">436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1380</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">530</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1624</t>
   </si>
 </sst>
 </file>
@@ -483,7 +462,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.00"/>
+    <numFmt numFmtId="50000" formatCode="0.00"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -522,7 +501,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="50000" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -814,7 +793,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="15.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="15.71" hidden="0" customWidth="1"/>
@@ -930,10 +909,10 @@
         <v>43888</v>
       </c>
       <c r="B11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="n">
         <v>4</v>
@@ -952,7 +931,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" t="n">
         <v>5</v>
@@ -971,7 +950,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" t="n">
         <v>12</v>
@@ -990,7 +969,7 @@
         <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D14" t="n">
         <v>10</v>
@@ -1009,7 +988,7 @@
         <v>31</v>
       </c>
       <c r="C15" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D15" t="n">
         <v>14</v>
@@ -1028,7 +1007,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D16" t="n">
         <v>17</v>
@@ -1047,7 +1026,7 @@
         <v>61</v>
       </c>
       <c r="C17" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D17" t="n">
         <v>12</v>
@@ -1066,7 +1045,7 @@
         <v>62</v>
       </c>
       <c r="C18" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D18" t="n">
         <v>15</v>
@@ -1089,7 +1068,7 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D19" t="n">
         <v>23</v>
@@ -1112,7 +1091,7 @@
         <v>49</v>
       </c>
       <c r="C20" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D20" t="n">
         <v>8</v>
@@ -1135,7 +1114,7 @@
         <v>69</v>
       </c>
       <c r="C21" t="n">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D21" t="n">
         <v>17</v>
@@ -1158,7 +1137,7 @@
         <v>192</v>
       </c>
       <c r="C22" t="n">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D22" t="n">
         <v>29</v>
@@ -1181,7 +1160,7 @@
         <v>212</v>
       </c>
       <c r="C23" t="n">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="D23" t="n">
         <v>40</v>
@@ -1204,7 +1183,7 @@
         <v>334</v>
       </c>
       <c r="C24" t="n">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="D24" t="n">
         <v>48</v>
@@ -1227,7 +1206,7 @@
         <v>357</v>
       </c>
       <c r="C25" t="n">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="D25" t="n">
         <v>51</v>
@@ -1250,7 +1229,7 @@
         <v>433</v>
       </c>
       <c r="C26" t="n">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="D26" t="n">
         <v>54</v>
@@ -1273,7 +1252,7 @@
         <v>420</v>
       </c>
       <c r="C27" t="n">
-        <v>2384</v>
+        <v>2385</v>
       </c>
       <c r="D27" t="n">
         <v>64</v>
@@ -1296,7 +1275,7 @@
         <v>329</v>
       </c>
       <c r="C28" t="n">
-        <v>2713</v>
+        <v>2714</v>
       </c>
       <c r="D28" t="n">
         <v>54</v>
@@ -1319,7 +1298,7 @@
         <v>1065</v>
       </c>
       <c r="C29" t="n">
-        <v>3778</v>
+        <v>3779</v>
       </c>
       <c r="D29" t="n">
         <v>118</v>
@@ -1342,7 +1321,7 @@
         <v>1088</v>
       </c>
       <c r="C30" t="n">
-        <v>4866</v>
+        <v>4867</v>
       </c>
       <c r="D30" t="n">
         <v>97</v>
@@ -1365,7 +1344,7 @@
         <v>1214</v>
       </c>
       <c r="C31" t="n">
-        <v>6080</v>
+        <v>6081</v>
       </c>
       <c r="D31" t="n">
         <v>113</v>
@@ -1388,7 +1367,7 @@
         <v>837</v>
       </c>
       <c r="C32" t="n">
-        <v>6917</v>
+        <v>6918</v>
       </c>
       <c r="D32" t="n">
         <v>109</v>
@@ -1411,7 +1390,7 @@
         <v>1147</v>
       </c>
       <c r="C33" t="n">
-        <v>8064</v>
+        <v>8065</v>
       </c>
       <c r="D33" t="n">
         <v>141</v>
@@ -1434,7 +1413,7 @@
         <v>693</v>
       </c>
       <c r="C34" t="n">
-        <v>8757</v>
+        <v>8758</v>
       </c>
       <c r="D34" t="n">
         <v>117</v>
@@ -1457,7 +1436,7 @@
         <v>548</v>
       </c>
       <c r="C35" t="n">
-        <v>9305</v>
+        <v>9306</v>
       </c>
       <c r="D35" t="n">
         <v>134</v>
@@ -1480,7 +1459,7 @@
         <v>1464</v>
       </c>
       <c r="C36" t="n">
-        <v>10769</v>
+        <v>10770</v>
       </c>
       <c r="D36" t="n">
         <v>161</v>
@@ -1503,7 +1482,7 @@
         <v>1244</v>
       </c>
       <c r="C37" t="n">
-        <v>12013</v>
+        <v>12014</v>
       </c>
       <c r="D37" t="n">
         <v>181</v>
@@ -1526,7 +1505,7 @@
         <v>1072</v>
       </c>
       <c r="C38" t="n">
-        <v>13085</v>
+        <v>13086</v>
       </c>
       <c r="D38" t="n">
         <v>198</v>
@@ -1549,7 +1528,7 @@
         <v>1118</v>
       </c>
       <c r="C39" t="n">
-        <v>14203</v>
+        <v>14204</v>
       </c>
       <c r="D39" t="n">
         <v>164</v>
@@ -1572,7 +1551,7 @@
         <v>1308</v>
       </c>
       <c r="C40" t="n">
-        <v>15511</v>
+        <v>15512</v>
       </c>
       <c r="D40" t="n">
         <v>207</v>
@@ -1595,7 +1574,7 @@
         <v>723</v>
       </c>
       <c r="C41" t="n">
-        <v>16234</v>
+        <v>16235</v>
       </c>
       <c r="D41" t="n">
         <v>122</v>
@@ -1618,7 +1597,7 @@
         <v>434</v>
       </c>
       <c r="C42" t="n">
-        <v>16668</v>
+        <v>16669</v>
       </c>
       <c r="D42" t="n">
         <v>121</v>
@@ -1641,7 +1620,7 @@
         <v>1310</v>
       </c>
       <c r="C43" t="n">
-        <v>17978</v>
+        <v>17979</v>
       </c>
       <c r="D43" t="n">
         <v>164</v>
@@ -1664,7 +1643,7 @@
         <v>1137</v>
       </c>
       <c r="C44" t="n">
-        <v>19115</v>
+        <v>19116</v>
       </c>
       <c r="D44" t="n">
         <v>125</v>
@@ -1687,7 +1666,7 @@
         <v>1017</v>
       </c>
       <c r="C45" t="n">
-        <v>20132</v>
+        <v>20133</v>
       </c>
       <c r="D45" t="n">
         <v>97</v>
@@ -1710,7 +1689,7 @@
         <v>878</v>
       </c>
       <c r="C46" t="n">
-        <v>21010</v>
+        <v>21011</v>
       </c>
       <c r="D46" t="n">
         <v>95</v>
@@ -1733,7 +1712,7 @@
         <v>928</v>
       </c>
       <c r="C47" t="n">
-        <v>21938</v>
+        <v>21939</v>
       </c>
       <c r="D47" t="n">
         <v>75</v>
@@ -1756,7 +1735,7 @@
         <v>486</v>
       </c>
       <c r="C48" t="n">
-        <v>22424</v>
+        <v>22425</v>
       </c>
       <c r="D48" t="n">
         <v>56</v>
@@ -1779,7 +1758,7 @@
         <v>281</v>
       </c>
       <c r="C49" t="n">
-        <v>22705</v>
+        <v>22706</v>
       </c>
       <c r="D49" t="n">
         <v>50</v>
@@ -1802,7 +1781,7 @@
         <v>925</v>
       </c>
       <c r="C50" t="n">
-        <v>23630</v>
+        <v>23631</v>
       </c>
       <c r="D50" t="n">
         <v>71</v>
@@ -1825,7 +1804,7 @@
         <v>715</v>
       </c>
       <c r="C51" t="n">
-        <v>24345</v>
+        <v>24346</v>
       </c>
       <c r="D51" t="n">
         <v>58</v>
@@ -1848,7 +1827,7 @@
         <v>613</v>
       </c>
       <c r="C52" t="n">
-        <v>24958</v>
+        <v>24959</v>
       </c>
       <c r="D52" t="n">
         <v>59</v>
@@ -1871,7 +1850,7 @@
         <v>559</v>
       </c>
       <c r="C53" t="n">
-        <v>25517</v>
+        <v>25518</v>
       </c>
       <c r="D53" t="n">
         <v>57</v>
@@ -1894,7 +1873,7 @@
         <v>309</v>
       </c>
       <c r="C54" t="n">
-        <v>25826</v>
+        <v>25827</v>
       </c>
       <c r="D54" t="n">
         <v>40</v>
@@ -1917,7 +1896,7 @@
         <v>262</v>
       </c>
       <c r="C55" t="n">
-        <v>26088</v>
+        <v>26089</v>
       </c>
       <c r="D55" t="n">
         <v>43</v>
@@ -1940,7 +1919,7 @@
         <v>219</v>
       </c>
       <c r="C56" t="n">
-        <v>26307</v>
+        <v>26308</v>
       </c>
       <c r="D56" t="n">
         <v>32</v>
@@ -1963,7 +1942,7 @@
         <v>245</v>
       </c>
       <c r="C57" t="n">
-        <v>26552</v>
+        <v>26553</v>
       </c>
       <c r="D57" t="n">
         <v>27</v>
@@ -1983,7 +1962,7 @@
         <v>43935</v>
       </c>
       <c r="B58" t="n">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C58" t="n">
         <v>26977</v>
@@ -4473,10 +4452,10 @@
         <v>35528</v>
       </c>
       <c r="D166" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E166" t="n">
-        <v>4241</v>
+        <v>4242</v>
       </c>
       <c r="F166" t="n">
         <v>2</v>
@@ -4499,7 +4478,7 @@
         <v>6</v>
       </c>
       <c r="E167" t="n">
-        <v>4247</v>
+        <v>4248</v>
       </c>
       <c r="F167" t="n">
         <v>1</v>
@@ -4522,7 +4501,7 @@
         <v>5</v>
       </c>
       <c r="E168" t="n">
-        <v>4252</v>
+        <v>4253</v>
       </c>
       <c r="F168" t="n">
         <v>0</v>
@@ -4545,7 +4524,7 @@
         <v>5</v>
       </c>
       <c r="E169" t="n">
-        <v>4257</v>
+        <v>4258</v>
       </c>
       <c r="F169" t="n">
         <v>0</v>
@@ -4568,7 +4547,7 @@
         <v>2</v>
       </c>
       <c r="E170" t="n">
-        <v>4259</v>
+        <v>4260</v>
       </c>
       <c r="F170" t="n">
         <v>1</v>
@@ -4591,7 +4570,7 @@
         <v>7</v>
       </c>
       <c r="E171" t="n">
-        <v>4266</v>
+        <v>4267</v>
       </c>
       <c r="F171" t="n">
         <v>1</v>
@@ -4614,7 +4593,7 @@
         <v>12</v>
       </c>
       <c r="E172" t="n">
-        <v>4278</v>
+        <v>4279</v>
       </c>
       <c r="F172" t="n">
         <v>1</v>
@@ -4637,7 +4616,7 @@
         <v>6</v>
       </c>
       <c r="E173" t="n">
-        <v>4284</v>
+        <v>4285</v>
       </c>
       <c r="F173" t="n">
         <v>1</v>
@@ -4660,7 +4639,7 @@
         <v>8</v>
       </c>
       <c r="E174" t="n">
-        <v>4292</v>
+        <v>4293</v>
       </c>
       <c r="F174" t="n">
         <v>1</v>
@@ -4683,7 +4662,7 @@
         <v>7</v>
       </c>
       <c r="E175" t="n">
-        <v>4299</v>
+        <v>4300</v>
       </c>
       <c r="F175" t="n">
         <v>0</v>
@@ -4706,7 +4685,7 @@
         <v>8</v>
       </c>
       <c r="E176" t="n">
-        <v>4307</v>
+        <v>4308</v>
       </c>
       <c r="F176" t="n">
         <v>1</v>
@@ -4729,7 +4708,7 @@
         <v>5</v>
       </c>
       <c r="E177" t="n">
-        <v>4312</v>
+        <v>4313</v>
       </c>
       <c r="F177" t="n">
         <v>0</v>
@@ -4752,7 +4731,7 @@
         <v>5</v>
       </c>
       <c r="E178" t="n">
-        <v>4317</v>
+        <v>4318</v>
       </c>
       <c r="F178" t="n">
         <v>0</v>
@@ -4775,7 +4754,7 @@
         <v>9</v>
       </c>
       <c r="E179" t="n">
-        <v>4326</v>
+        <v>4327</v>
       </c>
       <c r="F179" t="n">
         <v>1</v>
@@ -4798,7 +4777,7 @@
         <v>7</v>
       </c>
       <c r="E180" t="n">
-        <v>4333</v>
+        <v>4334</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
@@ -4821,7 +4800,7 @@
         <v>8</v>
       </c>
       <c r="E181" t="n">
-        <v>4341</v>
+        <v>4342</v>
       </c>
       <c r="F181" t="n">
         <v>3</v>
@@ -4844,7 +4823,7 @@
         <v>7</v>
       </c>
       <c r="E182" t="n">
-        <v>4348</v>
+        <v>4349</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
@@ -4867,7 +4846,7 @@
         <v>9</v>
       </c>
       <c r="E183" t="n">
-        <v>4357</v>
+        <v>4358</v>
       </c>
       <c r="F183" t="n">
         <v>1</v>
@@ -4890,7 +4869,7 @@
         <v>7</v>
       </c>
       <c r="E184" t="n">
-        <v>4364</v>
+        <v>4365</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
@@ -4913,7 +4892,7 @@
         <v>6</v>
       </c>
       <c r="E185" t="n">
-        <v>4370</v>
+        <v>4371</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
@@ -4936,7 +4915,7 @@
         <v>8</v>
       </c>
       <c r="E186" t="n">
-        <v>4378</v>
+        <v>4379</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
@@ -4959,7 +4938,7 @@
         <v>8</v>
       </c>
       <c r="E187" t="n">
-        <v>4386</v>
+        <v>4387</v>
       </c>
       <c r="F187" t="n">
         <v>1</v>
@@ -4982,7 +4961,7 @@
         <v>4</v>
       </c>
       <c r="E188" t="n">
-        <v>4390</v>
+        <v>4391</v>
       </c>
       <c r="F188" t="n">
         <v>1</v>
@@ -5005,7 +4984,7 @@
         <v>6</v>
       </c>
       <c r="E189" t="n">
-        <v>4396</v>
+        <v>4397</v>
       </c>
       <c r="F189" t="n">
         <v>2</v>
@@ -5028,7 +5007,7 @@
         <v>7</v>
       </c>
       <c r="E190" t="n">
-        <v>4403</v>
+        <v>4404</v>
       </c>
       <c r="F190" t="n">
         <v>1</v>
@@ -5051,7 +5030,7 @@
         <v>5</v>
       </c>
       <c r="E191" t="n">
-        <v>4408</v>
+        <v>4409</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
@@ -5074,7 +5053,7 @@
         <v>6</v>
       </c>
       <c r="E192" t="n">
-        <v>4414</v>
+        <v>4415</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
@@ -5097,7 +5076,7 @@
         <v>5</v>
       </c>
       <c r="E193" t="n">
-        <v>4419</v>
+        <v>4420</v>
       </c>
       <c r="F193" t="n">
         <v>2</v>
@@ -5120,7 +5099,7 @@
         <v>9</v>
       </c>
       <c r="E194" t="n">
-        <v>4428</v>
+        <v>4429</v>
       </c>
       <c r="F194" t="n">
         <v>0</v>
@@ -5143,7 +5122,7 @@
         <v>2</v>
       </c>
       <c r="E195" t="n">
-        <v>4430</v>
+        <v>4431</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
@@ -5163,7 +5142,7 @@
         <v>42331</v>
       </c>
       <c r="D196" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E196" t="n">
         <v>4438</v>
@@ -5255,10 +5234,10 @@
         <v>43892</v>
       </c>
       <c r="D200" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E200" t="n">
-        <v>4475</v>
+        <v>4476</v>
       </c>
       <c r="F200" t="n">
         <v>1</v>
@@ -5281,7 +5260,7 @@
         <v>10</v>
       </c>
       <c r="E201" t="n">
-        <v>4485</v>
+        <v>4486</v>
       </c>
       <c r="F201" t="n">
         <v>2</v>
@@ -5304,7 +5283,7 @@
         <v>8</v>
       </c>
       <c r="E202" t="n">
-        <v>4493</v>
+        <v>4494</v>
       </c>
       <c r="F202" t="n">
         <v>2</v>
@@ -5324,10 +5303,10 @@
         <v>44779</v>
       </c>
       <c r="D203" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E203" t="n">
-        <v>4500</v>
+        <v>4502</v>
       </c>
       <c r="F203" t="n">
         <v>3</v>
@@ -5350,7 +5329,7 @@
         <v>14</v>
       </c>
       <c r="E204" t="n">
-        <v>4514</v>
+        <v>4516</v>
       </c>
       <c r="F204" t="n">
         <v>1</v>
@@ -5373,7 +5352,7 @@
         <v>7</v>
       </c>
       <c r="E205" t="n">
-        <v>4521</v>
+        <v>4523</v>
       </c>
       <c r="F205" t="n">
         <v>1</v>
@@ -5396,7 +5375,7 @@
         <v>11</v>
       </c>
       <c r="E206" t="n">
-        <v>4532</v>
+        <v>4534</v>
       </c>
       <c r="F206" t="n">
         <v>7</v>
@@ -5419,7 +5398,7 @@
         <v>20</v>
       </c>
       <c r="E207" t="n">
-        <v>4552</v>
+        <v>4554</v>
       </c>
       <c r="F207" t="n">
         <v>0</v>
@@ -5442,7 +5421,7 @@
         <v>12</v>
       </c>
       <c r="E208" t="n">
-        <v>4564</v>
+        <v>4566</v>
       </c>
       <c r="F208" t="n">
         <v>4</v>
@@ -5465,7 +5444,7 @@
         <v>13</v>
       </c>
       <c r="E209" t="n">
-        <v>4577</v>
+        <v>4579</v>
       </c>
       <c r="F209" t="n">
         <v>3</v>
@@ -5488,7 +5467,7 @@
         <v>11</v>
       </c>
       <c r="E210" t="n">
-        <v>4588</v>
+        <v>4590</v>
       </c>
       <c r="F210" t="n">
         <v>1</v>
@@ -5511,7 +5490,7 @@
         <v>10</v>
       </c>
       <c r="E211" t="n">
-        <v>4598</v>
+        <v>4600</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -5534,7 +5513,7 @@
         <v>9</v>
       </c>
       <c r="E212" t="n">
-        <v>4607</v>
+        <v>4609</v>
       </c>
       <c r="F212" t="n">
         <v>3</v>
@@ -5557,7 +5536,7 @@
         <v>21</v>
       </c>
       <c r="E213" t="n">
-        <v>4628</v>
+        <v>4630</v>
       </c>
       <c r="F213" t="n">
         <v>5</v>
@@ -5580,7 +5559,7 @@
         <v>13</v>
       </c>
       <c r="E214" t="n">
-        <v>4641</v>
+        <v>4643</v>
       </c>
       <c r="F214" t="n">
         <v>4</v>
@@ -5603,7 +5582,7 @@
         <v>19</v>
       </c>
       <c r="E215" t="n">
-        <v>4660</v>
+        <v>4662</v>
       </c>
       <c r="F215" t="n">
         <v>2</v>
@@ -5626,7 +5605,7 @@
         <v>11</v>
       </c>
       <c r="E216" t="n">
-        <v>4671</v>
+        <v>4673</v>
       </c>
       <c r="F216" t="n">
         <v>1</v>
@@ -5649,7 +5628,7 @@
         <v>12</v>
       </c>
       <c r="E217" t="n">
-        <v>4683</v>
+        <v>4685</v>
       </c>
       <c r="F217" t="n">
         <v>0</v>
@@ -5672,7 +5651,7 @@
         <v>19</v>
       </c>
       <c r="E218" t="n">
-        <v>4702</v>
+        <v>4704</v>
       </c>
       <c r="F218" t="n">
         <v>3</v>
@@ -5695,7 +5674,7 @@
         <v>8</v>
       </c>
       <c r="E219" t="n">
-        <v>4710</v>
+        <v>4712</v>
       </c>
       <c r="F219" t="n">
         <v>1</v>
@@ -5718,7 +5697,7 @@
         <v>13</v>
       </c>
       <c r="E220" t="n">
-        <v>4723</v>
+        <v>4725</v>
       </c>
       <c r="F220" t="n">
         <v>1</v>
@@ -5738,10 +5717,10 @@
         <v>52055</v>
       </c>
       <c r="D221" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E221" t="n">
-        <v>4738</v>
+        <v>4741</v>
       </c>
       <c r="F221" t="n">
         <v>3</v>
@@ -5761,10 +5740,10 @@
         <v>52414</v>
       </c>
       <c r="D222" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E222" t="n">
-        <v>4749</v>
+        <v>4753</v>
       </c>
       <c r="F222" t="n">
         <v>1</v>
@@ -5787,7 +5766,7 @@
         <v>7</v>
       </c>
       <c r="E223" t="n">
-        <v>4756</v>
+        <v>4760</v>
       </c>
       <c r="F223" t="n">
         <v>2</v>
@@ -5810,7 +5789,7 @@
         <v>17</v>
       </c>
       <c r="E224" t="n">
-        <v>4773</v>
+        <v>4777</v>
       </c>
       <c r="F224" t="n">
         <v>1</v>
@@ -5833,7 +5812,7 @@
         <v>16</v>
       </c>
       <c r="E225" t="n">
-        <v>4789</v>
+        <v>4793</v>
       </c>
       <c r="F225" t="n">
         <v>3</v>
@@ -5853,10 +5832,10 @@
         <v>53571</v>
       </c>
       <c r="D226" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E226" t="n">
-        <v>4814</v>
+        <v>4817</v>
       </c>
       <c r="F226" t="n">
         <v>1</v>
@@ -5879,7 +5858,7 @@
         <v>19</v>
       </c>
       <c r="E227" t="n">
-        <v>4833</v>
+        <v>4836</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
@@ -5893,22 +5872,22 @@
         <v>44105</v>
       </c>
       <c r="B228" t="n">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="C228" t="n">
-        <v>54708</v>
+        <v>54711</v>
       </c>
       <c r="D228" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E228" t="n">
-        <v>4847</v>
+        <v>4851</v>
       </c>
       <c r="F228" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G228" t="n">
-        <v>1797</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="229">
@@ -5916,22 +5895,22 @@
         <v>44106</v>
       </c>
       <c r="B229" t="n">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="C229" t="n">
-        <v>55382</v>
+        <v>55390</v>
       </c>
       <c r="D229" t="n">
         <v>20</v>
       </c>
       <c r="E229" t="n">
-        <v>4867</v>
+        <v>4871</v>
       </c>
       <c r="F229" t="n">
         <v>1</v>
       </c>
       <c r="G229" t="n">
-        <v>1798</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="230">
@@ -5939,22 +5918,22 @@
         <v>44107</v>
       </c>
       <c r="B230" t="n">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C230" t="n">
-        <v>55893</v>
+        <v>55903</v>
       </c>
       <c r="D230" t="n">
         <v>14</v>
       </c>
       <c r="E230" t="n">
-        <v>4881</v>
+        <v>4885</v>
       </c>
       <c r="F230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G230" t="n">
-        <v>1798</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="231">
@@ -5965,19 +5944,19 @@
         <v>314</v>
       </c>
       <c r="C231" t="n">
-        <v>56207</v>
+        <v>56217</v>
       </c>
       <c r="D231" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E231" t="n">
-        <v>4892</v>
+        <v>4897</v>
       </c>
       <c r="F231" t="n">
         <v>1</v>
       </c>
       <c r="G231" t="n">
-        <v>1799</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="232">
@@ -5988,19 +5967,19 @@
         <v>1020</v>
       </c>
       <c r="C232" t="n">
-        <v>57227</v>
+        <v>57237</v>
       </c>
       <c r="D232" t="n">
         <v>14</v>
       </c>
       <c r="E232" t="n">
-        <v>4906</v>
+        <v>4911</v>
       </c>
       <c r="F232" t="n">
         <v>2</v>
       </c>
       <c r="G232" t="n">
-        <v>1801</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="233">
@@ -6011,19 +5990,19 @@
         <v>1097</v>
       </c>
       <c r="C233" t="n">
-        <v>58324</v>
+        <v>58334</v>
       </c>
       <c r="D233" t="n">
         <v>28</v>
       </c>
       <c r="E233" t="n">
-        <v>4934</v>
+        <v>4939</v>
       </c>
       <c r="F233" t="n">
         <v>1</v>
       </c>
       <c r="G233" t="n">
-        <v>1802</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="234">
@@ -6034,19 +6013,19 @@
         <v>1379</v>
       </c>
       <c r="C234" t="n">
-        <v>59703</v>
+        <v>59713</v>
       </c>
       <c r="D234" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E234" t="n">
-        <v>4967</v>
+        <v>4973</v>
       </c>
       <c r="F234" t="n">
         <v>2</v>
       </c>
       <c r="G234" t="n">
-        <v>1804</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="235">
@@ -6054,22 +6033,22 @@
         <v>44112</v>
       </c>
       <c r="B235" t="n">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="C235" t="n">
-        <v>61176</v>
+        <v>61187</v>
       </c>
       <c r="D235" t="n">
         <v>42</v>
       </c>
       <c r="E235" t="n">
-        <v>5009</v>
+        <v>5015</v>
       </c>
       <c r="F235" t="n">
         <v>3</v>
       </c>
       <c r="G235" t="n">
-        <v>1807</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="236">
@@ -6080,19 +6059,19 @@
         <v>1725</v>
       </c>
       <c r="C236" t="n">
-        <v>62901</v>
+        <v>62912</v>
       </c>
       <c r="D236" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E236" t="n">
-        <v>5050</v>
+        <v>5058</v>
       </c>
       <c r="F236" t="n">
         <v>3</v>
       </c>
       <c r="G236" t="n">
-        <v>1810</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="237">
@@ -6103,19 +6082,19 @@
         <v>1252</v>
       </c>
       <c r="C237" t="n">
-        <v>64153</v>
+        <v>64164</v>
       </c>
       <c r="D237" t="n">
         <v>29</v>
       </c>
       <c r="E237" t="n">
-        <v>5079</v>
+        <v>5087</v>
       </c>
       <c r="F237" t="n">
         <v>3</v>
       </c>
       <c r="G237" t="n">
-        <v>1813</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="238">
@@ -6126,19 +6105,19 @@
         <v>808</v>
       </c>
       <c r="C238" t="n">
-        <v>64961</v>
+        <v>64972</v>
       </c>
       <c r="D238" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E238" t="n">
-        <v>5120</v>
+        <v>5129</v>
       </c>
       <c r="F238" t="n">
         <v>3</v>
       </c>
       <c r="G238" t="n">
-        <v>1816</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="239">
@@ -6149,19 +6128,19 @@
         <v>2564</v>
       </c>
       <c r="C239" t="n">
-        <v>67525</v>
+        <v>67536</v>
       </c>
       <c r="D239" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E239" t="n">
-        <v>5186</v>
+        <v>5199</v>
       </c>
       <c r="F239" t="n">
         <v>5</v>
       </c>
       <c r="G239" t="n">
-        <v>1821</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="240">
@@ -6172,19 +6151,19 @@
         <v>2693</v>
       </c>
       <c r="C240" t="n">
-        <v>70218</v>
+        <v>70229</v>
       </c>
       <c r="D240" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E240" t="n">
-        <v>5242</v>
+        <v>5258</v>
       </c>
       <c r="F240" t="n">
         <v>5</v>
       </c>
       <c r="G240" t="n">
-        <v>1826</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="241">
@@ -6195,19 +6174,19 @@
         <v>3003</v>
       </c>
       <c r="C241" t="n">
-        <v>73221</v>
+        <v>73232</v>
       </c>
       <c r="D241" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E241" t="n">
-        <v>5315</v>
+        <v>5332</v>
       </c>
       <c r="F241" t="n">
         <v>4</v>
       </c>
       <c r="G241" t="n">
-        <v>1830</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="242">
@@ -6218,19 +6197,19 @@
         <v>3406</v>
       </c>
       <c r="C242" t="n">
-        <v>76627</v>
+        <v>76638</v>
       </c>
       <c r="D242" t="n">
         <v>77</v>
       </c>
       <c r="E242" t="n">
-        <v>5392</v>
+        <v>5409</v>
       </c>
       <c r="F242" t="n">
         <v>5</v>
       </c>
       <c r="G242" t="n">
-        <v>1835</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="243">
@@ -6238,22 +6217,22 @@
         <v>44120</v>
       </c>
       <c r="B243" t="n">
-        <v>3690</v>
+        <v>3691</v>
       </c>
       <c r="C243" t="n">
-        <v>80317</v>
+        <v>80329</v>
       </c>
       <c r="D243" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E243" t="n">
-        <v>5477</v>
+        <v>5495</v>
       </c>
       <c r="F243" t="n">
         <v>8</v>
       </c>
       <c r="G243" t="n">
-        <v>1843</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="244">
@@ -6261,22 +6240,22 @@
         <v>44121</v>
       </c>
       <c r="B244" t="n">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="C244" t="n">
-        <v>82699</v>
+        <v>82710</v>
       </c>
       <c r="D244" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E244" t="n">
-        <v>5573</v>
+        <v>5592</v>
       </c>
       <c r="F244" t="n">
         <v>6</v>
       </c>
       <c r="G244" t="n">
-        <v>1849</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="245">
@@ -6287,19 +6266,19 @@
         <v>1788</v>
       </c>
       <c r="C245" t="n">
-        <v>84487</v>
+        <v>84498</v>
       </c>
       <c r="D245" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E245" t="n">
-        <v>5638</v>
+        <v>5658</v>
       </c>
       <c r="F245" t="n">
         <v>5</v>
       </c>
       <c r="G245" t="n">
-        <v>1854</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="246">
@@ -6307,22 +6286,22 @@
         <v>44123</v>
       </c>
       <c r="B246" t="n">
-        <v>5411</v>
+        <v>5412</v>
       </c>
       <c r="C246" t="n">
-        <v>89898</v>
+        <v>89910</v>
       </c>
       <c r="D246" t="n">
         <v>137</v>
       </c>
       <c r="E246" t="n">
-        <v>5775</v>
+        <v>5795</v>
       </c>
       <c r="F246" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G246" t="n">
-        <v>1865</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="247">
@@ -6333,19 +6312,19 @@
         <v>5674</v>
       </c>
       <c r="C247" t="n">
-        <v>95572</v>
+        <v>95584</v>
       </c>
       <c r="D247" t="n">
         <v>126</v>
       </c>
       <c r="E247" t="n">
-        <v>5901</v>
+        <v>5921</v>
       </c>
       <c r="F247" t="n">
         <v>10</v>
       </c>
       <c r="G247" t="n">
-        <v>1875</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="248">
@@ -6353,22 +6332,22 @@
         <v>44125</v>
       </c>
       <c r="B248" t="n">
-        <v>6469</v>
+        <v>6470</v>
       </c>
       <c r="C248" t="n">
-        <v>102041</v>
+        <v>102054</v>
       </c>
       <c r="D248" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E248" t="n">
-        <v>6009</v>
+        <v>6030</v>
       </c>
       <c r="F248" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G248" t="n">
-        <v>1884</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="249">
@@ -6376,22 +6355,22 @@
         <v>44126</v>
       </c>
       <c r="B249" t="n">
-        <v>6772</v>
+        <v>6778</v>
       </c>
       <c r="C249" t="n">
-        <v>108813</v>
+        <v>108832</v>
       </c>
       <c r="D249" t="n">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E249" t="n">
-        <v>6137</v>
+        <v>6164</v>
       </c>
       <c r="F249" t="n">
         <v>19</v>
       </c>
       <c r="G249" t="n">
-        <v>1903</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="250">
@@ -6399,22 +6378,22 @@
         <v>44127</v>
       </c>
       <c r="B250" t="n">
-        <v>7473</v>
+        <v>7531</v>
       </c>
       <c r="C250" t="n">
-        <v>116286</v>
+        <v>116363</v>
       </c>
       <c r="D250" t="n">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E250" t="n">
-        <v>6288</v>
+        <v>6321</v>
       </c>
       <c r="F250" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G250" t="n">
-        <v>1920</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="251">
@@ -6422,22 +6401,22 @@
         <v>44128</v>
       </c>
       <c r="B251" t="n">
-        <v>4654</v>
+        <v>4682</v>
       </c>
       <c r="C251" t="n">
-        <v>120940</v>
+        <v>121045</v>
       </c>
       <c r="D251" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E251" t="n">
-        <v>6416</v>
+        <v>6451</v>
       </c>
       <c r="F251" t="n">
         <v>21</v>
       </c>
       <c r="G251" t="n">
-        <v>1941</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="252">
@@ -6445,22 +6424,22 @@
         <v>44129</v>
       </c>
       <c r="B252" t="n">
-        <v>3188</v>
+        <v>3218</v>
       </c>
       <c r="C252" t="n">
-        <v>124128</v>
+        <v>124263</v>
       </c>
       <c r="D252" t="n">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E252" t="n">
-        <v>6566</v>
+        <v>6605</v>
       </c>
       <c r="F252" t="n">
         <v>16</v>
       </c>
       <c r="G252" t="n">
-        <v>1957</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="253">
@@ -6468,22 +6447,22 @@
         <v>44130</v>
       </c>
       <c r="B253" t="n">
-        <v>9987</v>
+        <v>10056</v>
       </c>
       <c r="C253" t="n">
-        <v>134115</v>
+        <v>134319</v>
       </c>
       <c r="D253" t="n">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E253" t="n">
-        <v>6741</v>
+        <v>6785</v>
       </c>
       <c r="F253" t="n">
         <v>13</v>
       </c>
       <c r="G253" t="n">
-        <v>1970</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="254">
@@ -6491,22 +6470,22 @@
         <v>44131</v>
       </c>
       <c r="B254" t="n">
-        <v>9641</v>
+        <v>9693</v>
       </c>
       <c r="C254" t="n">
-        <v>143756</v>
+        <v>144012</v>
       </c>
       <c r="D254" t="n">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E254" t="n">
-        <v>6888</v>
+        <v>6938</v>
       </c>
       <c r="F254" t="n">
         <v>32</v>
       </c>
       <c r="G254" t="n">
-        <v>2002</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="255">
@@ -6514,22 +6493,22 @@
         <v>44132</v>
       </c>
       <c r="B255" t="n">
-        <v>9248</v>
+        <v>9318</v>
       </c>
       <c r="C255" t="n">
-        <v>153004</v>
+        <v>153330</v>
       </c>
       <c r="D255" t="n">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="E255" t="n">
-        <v>7047</v>
+        <v>7108</v>
       </c>
       <c r="F255" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G255" t="n">
-        <v>2037</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="256">
@@ -6537,22 +6516,22 @@
         <v>44133</v>
       </c>
       <c r="B256" t="n">
-        <v>8863</v>
+        <v>8931</v>
       </c>
       <c r="C256" t="n">
-        <v>161867</v>
+        <v>162261</v>
       </c>
       <c r="D256" t="n">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="E256" t="n">
-        <v>7185</v>
+        <v>7258</v>
       </c>
       <c r="F256" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G256" t="n">
-        <v>2083</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="257">
@@ -6560,22 +6539,22 @@
         <v>44134</v>
       </c>
       <c r="B257" t="n">
-        <v>8830</v>
+        <v>8876</v>
       </c>
       <c r="C257" t="n">
-        <v>170697</v>
+        <v>171137</v>
       </c>
       <c r="D257" t="n">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="E257" t="n">
-        <v>7337</v>
+        <v>7426</v>
       </c>
       <c r="F257" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G257" t="n">
-        <v>2110</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="258">
@@ -6583,22 +6562,22 @@
         <v>44135</v>
       </c>
       <c r="B258" t="n">
-        <v>4824</v>
+        <v>5040</v>
       </c>
       <c r="C258" t="n">
-        <v>175521</v>
+        <v>176177</v>
       </c>
       <c r="D258" t="n">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="E258" t="n">
-        <v>7413</v>
+        <v>7524</v>
       </c>
       <c r="F258" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G258" t="n">
-        <v>2149</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="259">
@@ -6606,22 +6585,22 @@
         <v>44136</v>
       </c>
       <c r="B259" t="n">
-        <v>3104</v>
+        <v>3551</v>
       </c>
       <c r="C259" t="n">
-        <v>178625</v>
+        <v>179728</v>
       </c>
       <c r="D259" t="n">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="E259" t="n">
-        <v>7478</v>
+        <v>7617</v>
       </c>
       <c r="F259" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G259" t="n">
-        <v>2183</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="260">
@@ -6629,22 +6608,22 @@
         <v>44137</v>
       </c>
       <c r="B260" t="n">
-        <v>3646</v>
+        <v>8542</v>
       </c>
       <c r="C260" t="n">
-        <v>182271</v>
+        <v>188270</v>
       </c>
       <c r="D260" t="n">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="E260" t="n">
-        <v>7507</v>
+        <v>7712</v>
       </c>
       <c r="F260" t="n">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="G260" t="n">
-        <v>2202</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="261">
@@ -6652,22 +6631,45 @@
         <v>44138</v>
       </c>
       <c r="B261" t="n">
-        <v>32</v>
+        <v>4097</v>
       </c>
       <c r="C261" t="n">
-        <v>182303</v>
+        <v>192367</v>
       </c>
       <c r="D261" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E261" t="n">
-        <v>7507</v>
+        <v>7749</v>
       </c>
       <c r="F261" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G261" t="n">
-        <v>2202</v>
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>44139</v>
+      </c>
+      <c r="B262" t="n">
+        <v>9</v>
+      </c>
+      <c r="C262" t="n">
+        <v>192376</v>
+      </c>
+      <c r="D262" t="n">
+        <v>0</v>
+      </c>
+      <c r="E262" t="n">
+        <v>7749</v>
+      </c>
+      <c r="F262" t="n">
+        <v>2</v>
+      </c>
+      <c r="G262" t="n">
+        <v>2275</v>
       </c>
     </row>
   </sheetData>
@@ -6682,7 +6684,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="20.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="20.71" hidden="0" customWidth="1"/>
@@ -6757,31 +6759,31 @@
         <v>25</v>
       </c>
       <c r="B8" t="n">
-        <v>756</v>
+        <v>793</v>
       </c>
       <c r="C8" t="n">
         <v>0.8</v>
       </c>
       <c r="D8" t="n">
-        <v>168</v>
+        <v>176.2</v>
       </c>
       <c r="E8" t="n">
-        <v>626</v>
+        <v>665</v>
       </c>
       <c r="F8" t="n">
         <v>0.7</v>
       </c>
       <c r="G8" t="n">
-        <v>146.7</v>
+        <v>155.9</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="J8" t="n">
-        <v>1383</v>
+        <v>1459</v>
       </c>
       <c r="K8" t="n">
         <v>0.8</v>
@@ -6792,31 +6794,31 @@
         <v>26</v>
       </c>
       <c r="B9" t="n">
-        <v>6789</v>
+        <v>7249</v>
       </c>
       <c r="C9" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="D9" t="n">
-        <v>1555.1</v>
+        <v>1660.5</v>
       </c>
       <c r="E9" t="n">
-        <v>6810</v>
+        <v>7204</v>
       </c>
       <c r="F9" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="G9" t="n">
-        <v>1655</v>
+        <v>1750.7</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="J9" t="n">
-        <v>13603</v>
+        <v>14457</v>
       </c>
       <c r="K9" t="n">
         <v>7.5</v>
@@ -6827,31 +6829,31 @@
         <v>27</v>
       </c>
       <c r="B10" t="n">
-        <v>17330</v>
+        <v>18189</v>
       </c>
       <c r="C10" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="D10" t="n">
-        <v>3226.1</v>
+        <v>3386</v>
       </c>
       <c r="E10" t="n">
-        <v>17738</v>
+        <v>18644</v>
       </c>
       <c r="F10" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="G10" t="n">
-        <v>3459.7</v>
+        <v>3636.4</v>
       </c>
       <c r="H10" t="n">
         <v>9</v>
       </c>
       <c r="I10" t="n">
-        <v>17.6</v>
+        <v>17.3</v>
       </c>
       <c r="J10" t="n">
-        <v>35077</v>
+        <v>36842</v>
       </c>
       <c r="K10" t="n">
         <v>19.2</v>
@@ -6862,31 +6864,31 @@
         <v>28</v>
       </c>
       <c r="B11" t="n">
-        <v>15987</v>
+        <v>16831</v>
       </c>
       <c r="C11" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="D11" t="n">
-        <v>2565</v>
+        <v>2700.4</v>
       </c>
       <c r="E11" t="n">
-        <v>15834</v>
+        <v>16736</v>
       </c>
       <c r="F11" t="n">
         <v>17.1</v>
       </c>
       <c r="G11" t="n">
-        <v>2592.4</v>
+        <v>2740.1</v>
       </c>
       <c r="H11" t="n">
         <v>14</v>
       </c>
       <c r="I11" t="n">
-        <v>27.5</v>
+        <v>26.9</v>
       </c>
       <c r="J11" t="n">
-        <v>31835</v>
+        <v>33581</v>
       </c>
       <c r="K11" t="n">
         <v>17.5</v>
@@ -6897,31 +6899,31 @@
         <v>29</v>
       </c>
       <c r="B12" t="n">
-        <v>13919</v>
+        <v>14714</v>
       </c>
       <c r="C12" t="n">
         <v>15.6</v>
       </c>
       <c r="D12" t="n">
-        <v>2299.4</v>
+        <v>2430.7</v>
       </c>
       <c r="E12" t="n">
-        <v>15215</v>
+        <v>16108</v>
       </c>
       <c r="F12" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="G12" t="n">
-        <v>2541.9</v>
+        <v>2691.1</v>
       </c>
       <c r="H12" t="n">
         <v>9</v>
       </c>
       <c r="I12" t="n">
-        <v>17.6</v>
+        <v>17.3</v>
       </c>
       <c r="J12" t="n">
-        <v>29143</v>
+        <v>30831</v>
       </c>
       <c r="K12" t="n">
         <v>16</v>
@@ -6932,31 +6934,31 @@
         <v>30</v>
       </c>
       <c r="B13" t="n">
-        <v>15187</v>
+        <v>16030</v>
       </c>
       <c r="C13" t="n">
         <v>17</v>
       </c>
       <c r="D13" t="n">
-        <v>2319.8</v>
+        <v>2448.6</v>
       </c>
       <c r="E13" t="n">
-        <v>15683</v>
+        <v>16552</v>
       </c>
       <c r="F13" t="n">
         <v>16.9</v>
       </c>
       <c r="G13" t="n">
-        <v>2433.3</v>
+        <v>2568.1</v>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I13" t="n">
-        <v>11.8</v>
+        <v>13.5</v>
       </c>
       <c r="J13" t="n">
-        <v>30876</v>
+        <v>32589</v>
       </c>
       <c r="K13" t="n">
         <v>16.9</v>
@@ -6967,31 +6969,31 @@
         <v>31</v>
       </c>
       <c r="B14" t="n">
-        <v>9168</v>
+        <v>9660</v>
       </c>
       <c r="C14" t="n">
         <v>10.2</v>
       </c>
       <c r="D14" t="n">
-        <v>1957</v>
+        <v>2062</v>
       </c>
       <c r="E14" t="n">
-        <v>8300</v>
+        <v>8778</v>
       </c>
       <c r="F14" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="G14" t="n">
-        <v>1714.2</v>
+        <v>1813</v>
       </c>
       <c r="H14" t="n">
         <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>9.8</v>
+        <v>9.6</v>
       </c>
       <c r="J14" t="n">
-        <v>17473</v>
+        <v>18443</v>
       </c>
       <c r="K14" t="n">
         <v>9.6</v>
@@ -7002,34 +7004,34 @@
         <v>32</v>
       </c>
       <c r="B15" t="n">
-        <v>5994</v>
+        <v>6361</v>
       </c>
       <c r="C15" t="n">
         <v>6.7</v>
       </c>
       <c r="D15" t="n">
-        <v>1773.7</v>
+        <v>1882.3</v>
       </c>
       <c r="E15" t="n">
-        <v>5579</v>
+        <v>5893</v>
       </c>
       <c r="F15" t="n">
         <v>6</v>
       </c>
       <c r="G15" t="n">
-        <v>1442.2</v>
+        <v>1523.4</v>
       </c>
       <c r="H15" t="n">
         <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J15" t="n">
-        <v>11576</v>
+        <v>12257</v>
       </c>
       <c r="K15" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="16">
@@ -7037,22 +7039,22 @@
         <v>33</v>
       </c>
       <c r="B16" t="n">
-        <v>4339</v>
+        <v>4556</v>
       </c>
       <c r="C16" t="n">
         <v>4.8</v>
       </c>
       <c r="D16" t="n">
-        <v>2489.1</v>
+        <v>2613.5</v>
       </c>
       <c r="E16" t="n">
-        <v>6920</v>
+        <v>7275</v>
       </c>
       <c r="F16" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="G16" t="n">
-        <v>2464.4</v>
+        <v>2590.8</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -7061,10 +7063,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11259</v>
+        <v>11831</v>
       </c>
       <c r="K16" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="17">
@@ -7072,17 +7074,17 @@
         <v>34</v>
       </c>
       <c r="B17" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G17"/>
       <c r="H17" t="n">
@@ -7092,7 +7094,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -7115,7 +7117,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="15.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="15.71" hidden="0" customWidth="1"/>
@@ -7170,16 +7172,16 @@
         <v>41</v>
       </c>
       <c r="B8" t="n">
-        <v>8351</v>
+        <v>8856</v>
       </c>
       <c r="C8" t="n">
-        <v>1217.6</v>
+        <v>1291.3</v>
       </c>
       <c r="E8" t="n">
-        <v>4200</v>
+        <v>4443</v>
       </c>
       <c r="F8" t="n">
-        <v>612.4</v>
+        <v>647.8</v>
       </c>
     </row>
     <row r="9">
@@ -7187,10 +7189,10 @@
         <v>42</v>
       </c>
       <c r="B9" t="n">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="C9" t="n">
-        <v>2250.7</v>
+        <v>2374.8</v>
       </c>
       <c r="E9" t="n">
         <v>195</v>
@@ -7204,16 +7206,16 @@
         <v>43</v>
       </c>
       <c r="B10" t="n">
-        <v>839</v>
+        <v>894</v>
       </c>
       <c r="C10" t="n">
-        <v>1513.2</v>
+        <v>1612.4</v>
       </c>
       <c r="E10" t="n">
-        <v>461</v>
+        <v>479</v>
       </c>
       <c r="F10" t="n">
-        <v>831.5</v>
+        <v>863.9</v>
       </c>
     </row>
     <row r="11">
@@ -7221,16 +7223,16 @@
         <v>44</v>
       </c>
       <c r="B11" t="n">
-        <v>15112</v>
+        <v>16083</v>
       </c>
       <c r="C11" t="n">
-        <v>1453.8</v>
+        <v>1547.2</v>
       </c>
       <c r="E11" t="n">
-        <v>8234</v>
+        <v>8642</v>
       </c>
       <c r="F11" t="n">
-        <v>792.1</v>
+        <v>831.4</v>
       </c>
     </row>
     <row r="12">
@@ -7238,16 +7240,16 @@
         <v>45</v>
       </c>
       <c r="B12" t="n">
-        <v>3197</v>
+        <v>3348</v>
       </c>
       <c r="C12" t="n">
-        <v>1104.4</v>
+        <v>1156.6</v>
       </c>
       <c r="E12" t="n">
-        <v>1467</v>
+        <v>1547</v>
       </c>
       <c r="F12" t="n">
-        <v>506.8</v>
+        <v>534.4</v>
       </c>
     </row>
     <row r="13">
@@ -7255,16 +7257,16 @@
         <v>46</v>
       </c>
       <c r="B13" t="n">
-        <v>2953</v>
+        <v>3059</v>
       </c>
       <c r="C13" t="n">
-        <v>1507.8</v>
+        <v>1562</v>
       </c>
       <c r="E13" t="n">
-        <v>1052</v>
+        <v>1101</v>
       </c>
       <c r="F13" t="n">
-        <v>537.2</v>
+        <v>562.2</v>
       </c>
     </row>
     <row r="14">
@@ -7272,10 +7274,10 @@
         <v>47</v>
       </c>
       <c r="B14" t="n">
-        <v>643</v>
+        <v>673</v>
       </c>
       <c r="C14" t="n">
-        <v>1675.4</v>
+        <v>1753.6</v>
       </c>
       <c r="E14" t="n">
         <v>385</v>
@@ -7289,16 +7291,16 @@
         <v>48</v>
       </c>
       <c r="B15" t="n">
-        <v>11264</v>
+        <v>11991</v>
       </c>
       <c r="C15" t="n">
-        <v>3500.5</v>
+        <v>3726.4</v>
       </c>
       <c r="E15" t="n">
-        <v>6681</v>
+        <v>7045</v>
       </c>
       <c r="F15" t="n">
-        <v>2076.2</v>
+        <v>2189.4</v>
       </c>
     </row>
     <row r="16">
@@ -7306,16 +7308,16 @@
         <v>49</v>
       </c>
       <c r="B16" t="n">
-        <v>24489</v>
+        <v>25751</v>
       </c>
       <c r="C16" t="n">
-        <v>4857.7</v>
+        <v>5108</v>
       </c>
       <c r="E16" t="n">
-        <v>11965</v>
+        <v>12570</v>
       </c>
       <c r="F16" t="n">
-        <v>2373.4</v>
+        <v>2493.4</v>
       </c>
     </row>
     <row r="17">
@@ -7323,16 +7325,16 @@
         <v>50</v>
       </c>
       <c r="B17" t="n">
-        <v>534</v>
+        <v>566</v>
       </c>
       <c r="C17" t="n">
-        <v>1315.6</v>
+        <v>1394.4</v>
       </c>
       <c r="E17" t="n">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="F17" t="n">
-        <v>581.4</v>
+        <v>623.3</v>
       </c>
     </row>
     <row r="18">
@@ -7340,16 +7342,16 @@
         <v>51</v>
       </c>
       <c r="B18" t="n">
-        <v>2869</v>
+        <v>2984</v>
       </c>
       <c r="C18" t="n">
-        <v>1441.6</v>
+        <v>1499.3</v>
       </c>
       <c r="E18" t="n">
-        <v>1259</v>
+        <v>1281</v>
       </c>
       <c r="F18" t="n">
-        <v>632.6</v>
+        <v>643.7</v>
       </c>
     </row>
     <row r="19">
@@ -7357,16 +7359,16 @@
         <v>52</v>
       </c>
       <c r="B19" t="n">
-        <v>2323</v>
+        <v>2520</v>
       </c>
       <c r="C19" t="n">
-        <v>3156.9</v>
+        <v>3424.7</v>
       </c>
       <c r="E19" t="n">
-        <v>1346</v>
+        <v>1444</v>
       </c>
       <c r="F19" t="n">
-        <v>1829.2</v>
+        <v>1962.4</v>
       </c>
     </row>
     <row r="20">
@@ -7374,16 +7376,16 @@
         <v>53</v>
       </c>
       <c r="B20" t="n">
-        <v>5379</v>
+        <v>5695</v>
       </c>
       <c r="C20" t="n">
-        <v>1302</v>
+        <v>1378.5</v>
       </c>
       <c r="E20" t="n">
-        <v>3069</v>
+        <v>3205</v>
       </c>
       <c r="F20" t="n">
-        <v>742.9</v>
+        <v>775.8</v>
       </c>
     </row>
     <row r="21">
@@ -7391,16 +7393,16 @@
         <v>54</v>
       </c>
       <c r="B21" t="n">
-        <v>4968</v>
+        <v>5221</v>
       </c>
       <c r="C21" t="n">
-        <v>2814.8</v>
+        <v>2958.1</v>
       </c>
       <c r="E21" t="n">
-        <v>2708</v>
+        <v>2784</v>
       </c>
       <c r="F21" t="n">
-        <v>1534.3</v>
+        <v>1577.4</v>
       </c>
     </row>
     <row r="22">
@@ -7408,16 +7410,16 @@
         <v>55</v>
       </c>
       <c r="B22" t="n">
-        <v>507</v>
+        <v>535</v>
       </c>
       <c r="C22" t="n">
-        <v>1176.7</v>
+        <v>1241.7</v>
       </c>
       <c r="E22" t="n">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="F22" t="n">
-        <v>543.1</v>
+        <v>577.9</v>
       </c>
     </row>
     <row r="23">
@@ -7425,16 +7427,16 @@
         <v>56</v>
       </c>
       <c r="B23" t="n">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="C23" t="n">
-        <v>1212.8</v>
+        <v>1318.2</v>
       </c>
       <c r="E23" t="n">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="F23" t="n">
-        <v>548.4</v>
+        <v>632.7</v>
       </c>
     </row>
     <row r="24">
@@ -7442,16 +7444,16 @@
         <v>57</v>
       </c>
       <c r="B24" t="n">
-        <v>8426</v>
+        <v>9002</v>
       </c>
       <c r="C24" t="n">
-        <v>1649.8</v>
+        <v>1762.6</v>
       </c>
       <c r="E24" t="n">
-        <v>4761</v>
+        <v>5005</v>
       </c>
       <c r="F24" t="n">
-        <v>932.2</v>
+        <v>980</v>
       </c>
     </row>
     <row r="25">
@@ -7459,16 +7461,16 @@
         <v>58</v>
       </c>
       <c r="B25" t="n">
-        <v>793</v>
+        <v>851</v>
       </c>
       <c r="C25" t="n">
-        <v>963</v>
+        <v>1033.4</v>
       </c>
       <c r="E25" t="n">
-        <v>447</v>
+        <v>475</v>
       </c>
       <c r="F25" t="n">
-        <v>542.8</v>
+        <v>576.8</v>
       </c>
     </row>
     <row r="26">
@@ -7476,16 +7478,16 @@
         <v>59</v>
       </c>
       <c r="B26" t="n">
-        <v>2920</v>
+        <v>3097</v>
       </c>
       <c r="C26" t="n">
-        <v>1060.9</v>
+        <v>1125.2</v>
       </c>
       <c r="E26" t="n">
-        <v>1546</v>
+        <v>1625</v>
       </c>
       <c r="F26" t="n">
-        <v>561.7</v>
+        <v>590.4</v>
       </c>
     </row>
     <row r="27">
@@ -7493,16 +7495,16 @@
         <v>60</v>
       </c>
       <c r="B27" t="n">
-        <v>3488</v>
+        <v>3603</v>
       </c>
       <c r="C27" t="n">
-        <v>2173.5</v>
+        <v>2245.1</v>
       </c>
       <c r="E27" t="n">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="F27" t="n">
-        <v>1023.2</v>
+        <v>1022.6</v>
       </c>
     </row>
     <row r="28">
@@ -7510,16 +7512,16 @@
         <v>61</v>
       </c>
       <c r="B28" t="n">
-        <v>3221</v>
+        <v>3451</v>
       </c>
       <c r="C28" t="n">
-        <v>1152.2</v>
+        <v>1234.5</v>
       </c>
       <c r="E28" t="n">
-        <v>1811</v>
+        <v>1919</v>
       </c>
       <c r="F28" t="n">
-        <v>647.8</v>
+        <v>686.5</v>
       </c>
     </row>
     <row r="29">
@@ -7527,16 +7529,16 @@
         <v>62</v>
       </c>
       <c r="B29" t="n">
-        <v>8346</v>
+        <v>8778</v>
       </c>
       <c r="C29" t="n">
-        <v>2374.5</v>
+        <v>2497.4</v>
       </c>
       <c r="E29" t="n">
-        <v>3583</v>
+        <v>3819</v>
       </c>
       <c r="F29" t="n">
-        <v>1019.4</v>
+        <v>1086.5</v>
       </c>
     </row>
     <row r="30">
@@ -7544,16 +7546,16 @@
         <v>63</v>
       </c>
       <c r="B30" t="n">
-        <v>498</v>
+        <v>518</v>
       </c>
       <c r="C30" t="n">
-        <v>1356.8</v>
+        <v>1411.3</v>
       </c>
       <c r="E30" t="n">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F30" t="n">
-        <v>686.6</v>
+        <v>673</v>
       </c>
     </row>
     <row r="31">
@@ -7561,16 +7563,16 @@
         <v>64</v>
       </c>
       <c r="B31" t="n">
-        <v>28764</v>
+        <v>30139</v>
       </c>
       <c r="C31" t="n">
-        <v>3572.7</v>
+        <v>3743.5</v>
       </c>
       <c r="E31" t="n">
-        <v>13413</v>
+        <v>14077</v>
       </c>
       <c r="F31" t="n">
-        <v>1666</v>
+        <v>1748.5</v>
       </c>
     </row>
     <row r="32">
@@ -7578,16 +7580,16 @@
         <v>65</v>
       </c>
       <c r="B32" t="n">
-        <v>14596</v>
+        <v>15249</v>
       </c>
       <c r="C32" t="n">
-        <v>4224.3</v>
+        <v>4413.3</v>
       </c>
       <c r="E32" t="n">
-        <v>8742</v>
+        <v>8834</v>
       </c>
       <c r="F32" t="n">
-        <v>2530.1</v>
+        <v>2556.7</v>
       </c>
     </row>
     <row r="33">
@@ -7595,16 +7597,16 @@
         <v>66</v>
       </c>
       <c r="B33" t="n">
-        <v>1846</v>
+        <v>1919</v>
       </c>
       <c r="C33" t="n">
-        <v>1446.2</v>
+        <v>1503.4</v>
       </c>
       <c r="E33" t="n">
-        <v>862</v>
+        <v>871</v>
       </c>
       <c r="F33" t="n">
-        <v>675.3</v>
+        <v>682.4</v>
       </c>
     </row>
     <row r="34">
@@ -7612,16 +7614,16 @@
         <v>67</v>
       </c>
       <c r="B34" t="n">
-        <v>25154</v>
+        <v>26710</v>
       </c>
       <c r="C34" t="n">
-        <v>1634.1</v>
+        <v>1735.2</v>
       </c>
       <c r="E34" t="n">
-        <v>11614</v>
+        <v>12407</v>
       </c>
       <c r="F34" t="n">
-        <v>754.5</v>
+        <v>806</v>
       </c>
     </row>
     <row r="35">
@@ -7629,16 +7631,16 @@
         <v>68</v>
       </c>
       <c r="B35" t="n">
-        <v>182303</v>
+        <v>192376</v>
       </c>
       <c r="C35" t="n">
-        <v>2108.9</v>
+        <v>2225.4</v>
       </c>
       <c r="E35" t="n">
-        <v>92373</v>
+        <v>96783</v>
       </c>
       <c r="F35" t="n">
-        <v>1068.6</v>
+        <v>1119.6</v>
       </c>
     </row>
     <row r="37">
@@ -7658,7 +7660,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="20.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="20.71" hidden="0" customWidth="1"/>
@@ -7717,25 +7719,25 @@
         <v>25</v>
       </c>
       <c r="B8" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C8" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F8" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="G8" t="n">
-        <v>8</v>
+        <v>8.7</v>
       </c>
       <c r="H8" t="n">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="9">
@@ -7743,7 +7745,7 @@
         <v>26</v>
       </c>
       <c r="B9" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C9" t="n">
         <v>33</v>
@@ -7752,13 +7754,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F9" t="n">
-        <v>9.1</v>
+        <v>9.3</v>
       </c>
       <c r="G9" t="n">
-        <v>10.1</v>
+        <v>10.5</v>
       </c>
       <c r="H9" t="n">
         <v>8</v>
@@ -7769,25 +7771,25 @@
         <v>27</v>
       </c>
       <c r="B10" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C10" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F10" t="n">
-        <v>21.2</v>
+        <v>21.6</v>
       </c>
       <c r="G10" t="n">
-        <v>26.6</v>
+        <v>27</v>
       </c>
       <c r="H10" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -7795,25 +7797,25 @@
         <v>28</v>
       </c>
       <c r="B11" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C11" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F11" t="n">
-        <v>22.1</v>
+        <v>22.4</v>
       </c>
       <c r="G11" t="n">
-        <v>23.4</v>
+        <v>23.7</v>
       </c>
       <c r="H11" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="12">
@@ -7821,25 +7823,25 @@
         <v>29</v>
       </c>
       <c r="B12" t="n">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="C12" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="F12" t="n">
-        <v>41.3</v>
+        <v>42.4</v>
       </c>
       <c r="G12" t="n">
-        <v>49.1</v>
+        <v>51</v>
       </c>
       <c r="H12" t="n">
-        <v>33.4</v>
+        <v>33.7</v>
       </c>
     </row>
     <row r="13">
@@ -7847,25 +7849,25 @@
         <v>30</v>
       </c>
       <c r="B13" t="n">
-        <v>652</v>
+        <v>665</v>
       </c>
       <c r="C13" t="n">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1027</v>
+        <v>1050</v>
       </c>
       <c r="F13" t="n">
-        <v>79.1</v>
+        <v>80.8</v>
       </c>
       <c r="G13" t="n">
-        <v>99.6</v>
+        <v>101.6</v>
       </c>
       <c r="H13" t="n">
-        <v>58.2</v>
+        <v>59.7</v>
       </c>
     </row>
     <row r="14">
@@ -7873,25 +7875,25 @@
         <v>31</v>
       </c>
       <c r="B14" t="n">
-        <v>908</v>
+        <v>930</v>
       </c>
       <c r="C14" t="n">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="D14" t="n">
         <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>1362</v>
+        <v>1398</v>
       </c>
       <c r="F14" t="n">
-        <v>143</v>
+        <v>146.7</v>
       </c>
       <c r="G14" t="n">
-        <v>193.8</v>
+        <v>198.5</v>
       </c>
       <c r="H14" t="n">
-        <v>93.4</v>
+        <v>96.2</v>
       </c>
     </row>
     <row r="15">
@@ -7899,25 +7901,25 @@
         <v>32</v>
       </c>
       <c r="B15" t="n">
-        <v>1153</v>
+        <v>1203</v>
       </c>
       <c r="C15" t="n">
-        <v>768</v>
+        <v>795</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1921</v>
+        <v>1998</v>
       </c>
       <c r="F15" t="n">
-        <v>265</v>
+        <v>275.7</v>
       </c>
       <c r="G15" t="n">
-        <v>341.2</v>
+        <v>356</v>
       </c>
       <c r="H15" t="n">
-        <v>198.5</v>
+        <v>205.5</v>
       </c>
     </row>
     <row r="16">
@@ -7925,25 +7927,25 @@
         <v>33</v>
       </c>
       <c r="B16" t="n">
-        <v>1224</v>
+        <v>1265</v>
       </c>
       <c r="C16" t="n">
-        <v>1124</v>
+        <v>1165</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>2348</v>
+        <v>2430</v>
       </c>
       <c r="F16" t="n">
-        <v>515.9</v>
+        <v>533.9</v>
       </c>
       <c r="G16" t="n">
-        <v>702.1</v>
+        <v>725.7</v>
       </c>
       <c r="H16" t="n">
-        <v>400.3</v>
+        <v>414.9</v>
       </c>
     </row>
     <row r="17">
@@ -7983,7 +7985,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="20.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="20.71" hidden="0" customWidth="1"/>
@@ -8144,7 +8146,7 @@
         <v>30</v>
       </c>
       <c r="B13" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C13" t="n">
         <v>13</v>
@@ -8153,13 +8155,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F13" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="G13" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="H13" t="n">
         <v>2</v>
@@ -8170,25 +8172,25 @@
         <v>31</v>
       </c>
       <c r="B14" t="n">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C14" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F14" t="n">
-        <v>16.4</v>
+        <v>17</v>
       </c>
       <c r="G14" t="n">
-        <v>25.2</v>
+        <v>26</v>
       </c>
       <c r="H14" t="n">
-        <v>7.6</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="15">
@@ -8196,25 +8198,25 @@
         <v>32</v>
       </c>
       <c r="B15" t="n">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="C15" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="F15" t="n">
-        <v>61.3</v>
+        <v>62.9</v>
       </c>
       <c r="G15" t="n">
-        <v>87.6</v>
+        <v>90.5</v>
       </c>
       <c r="H15" t="n">
-        <v>38.3</v>
+        <v>38.8</v>
       </c>
     </row>
     <row r="16">
@@ -8222,25 +8224,25 @@
         <v>33</v>
       </c>
       <c r="B16" t="n">
-        <v>802</v>
+        <v>827</v>
       </c>
       <c r="C16" t="n">
-        <v>738</v>
+        <v>766</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1540</v>
+        <v>1593</v>
       </c>
       <c r="F16" t="n">
-        <v>338.4</v>
+        <v>350</v>
       </c>
       <c r="G16" t="n">
-        <v>460.1</v>
+        <v>474.4</v>
       </c>
       <c r="H16" t="n">
-        <v>262.8</v>
+        <v>272.8</v>
       </c>
     </row>
     <row r="18">
@@ -8260,7 +8262,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="10.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="10.71" hidden="0" customWidth="1"/>
@@ -8318,7 +8320,7 @@
         <v>41</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44137</v>
+        <v>44138</v>
       </c>
       <c r="C8" t="s">
         <v>94</v>
@@ -8330,13 +8332,13 @@
         <v>96</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>110.374793138391</v>
+        <v>245.682333471849</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>163.885426007334</v>
+        <v>166.218314633773</v>
       </c>
     </row>
     <row r="9">
@@ -8344,51 +8346,45 @@
         <v>42</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44133</v>
+        <v>44138</v>
       </c>
       <c r="C9" t="s">
         <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>440.228174603175</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>496.031746031746</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>0</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>43</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44133</v>
+        <v>44138</v>
       </c>
       <c r="C10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" t="s">
         <v>99</v>
       </c>
-      <c r="D10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" t="s">
-        <v>101</v>
-      </c>
       <c r="F10" s="2" t="n">
-        <v>319.235278203625</v>
+        <v>654.702858688791</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>238.073766795924</v>
+        <v>0</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>102.804581116422</v>
+        <v>43.2861394174407</v>
       </c>
     </row>
     <row r="11">
@@ -8396,25 +8392,25 @@
         <v>44</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44133</v>
+        <v>44138</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
         <v>95</v>
       </c>
       <c r="E11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>589.336529821814</v>
+        <v>594.435262450047</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>95.7214899073955</v>
+        <v>46.2734036637761</v>
       </c>
     </row>
     <row r="12">
@@ -8422,25 +8418,25 @@
         <v>45</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44133</v>
+        <v>44138</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E12" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>107.438473337295</v>
+        <v>444.263269169649</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>313.333425456354</v>
+        <v>296.751281661531</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>82.5652576450592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -8448,25 +8444,25 @@
         <v>46</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44137</v>
+        <v>44138</v>
       </c>
       <c r="C13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E13" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>422.785482322665</v>
+        <v>428.912808153428</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1060.53797920794</v>
+        <v>990.584342640061</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0</v>
+        <v>222.626171851065</v>
       </c>
     </row>
     <row r="14">
@@ -8474,25 +8470,25 @@
         <v>47</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44133</v>
+        <v>44138</v>
       </c>
       <c r="C14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" t="s">
         <v>109</v>
       </c>
-      <c r="D14" t="s">
-        <v>110</v>
-      </c>
-      <c r="E14" t="s">
-        <v>111</v>
-      </c>
       <c r="F14" s="2" t="n">
-        <v>549.794152900099</v>
+        <v>656.626192089218</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1070.92605138361</v>
+        <v>1104.79962478503</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>106.832039189119</v>
+        <v>57.3245088331857</v>
       </c>
     </row>
     <row r="15">
@@ -8500,16 +8496,16 @@
         <v>48</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44133</v>
+        <v>44138</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="E15" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -8520,25 +8516,25 @@
         <v>49</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44133</v>
+        <v>44138</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E16" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>989.034530912784</v>
+        <v>1160.81630062206</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>819.633109051669</v>
+        <v>1440.7055351022</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>362.606322203885</v>
+        <v>273.740002539038</v>
       </c>
     </row>
     <row r="17">
@@ -8546,25 +8542,25 @@
         <v>50</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44133</v>
+        <v>44138</v>
       </c>
       <c r="C17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D17" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E17" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>271.0027100271</v>
+        <v>322.739591032274</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>571.569352057157</v>
+        <v>650.406504065041</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>96.0827790096083</v>
+        <v>54.2005420054201</v>
       </c>
     </row>
     <row r="18">
@@ -8572,71 +8568,71 @@
         <v>51</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44133</v>
+        <v>44138</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E18" t="s">
-        <v>112</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>285.899477944538</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>485.878374643882</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>237.663362157762</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>52</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44133</v>
+        <v>44138</v>
       </c>
       <c r="C19" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="E19" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>1168.73233311589</v>
-      </c>
-      <c r="G19" s="2" t="n">
-        <v>2160.79582517939</v>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>0</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>53</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44133</v>
+        <v>44138</v>
       </c>
       <c r="C20" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D20" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>528.175832687839</v>
+        <v>532.532920216886</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>69.9554608830364</v>
+        <v>256.341982958947</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>95.6138652207591</v>
+        <v>50.1065065840434</v>
       </c>
     </row>
     <row r="21">
@@ -8644,25 +8640,25 @@
         <v>54</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44134</v>
+        <v>44138</v>
       </c>
       <c r="C21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>562.052397788052</v>
+        <v>922.40050766023</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>606.812618982867</v>
+        <v>414.173692321639</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>136.547003898105</v>
+        <v>107.084579820506</v>
       </c>
     </row>
     <row r="22">
@@ -8670,51 +8666,45 @@
         <v>55</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44133</v>
+        <v>44138</v>
       </c>
       <c r="C22" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="D22" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="E22" t="s">
-        <v>129</v>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>234.409450646367</v>
-      </c>
-      <c r="G22" s="2" t="n">
-        <v>582.542298140971</v>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>162.461995497482</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>56</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44137</v>
+        <v>44138</v>
       </c>
       <c r="C23" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D23" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>282.098602689164</v>
+        <v>340.100184550488</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>614.289480622199</v>
+        <v>703.928288953335</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>94.9116794094384</v>
+        <v>42.1829686264171</v>
       </c>
     </row>
     <row r="24">
@@ -8722,16 +8712,16 @@
         <v>57</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44133</v>
+        <v>44138</v>
       </c>
       <c r="C24" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D24" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="E24" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -8742,25 +8732,25 @@
         <v>58</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44133</v>
+        <v>44138</v>
       </c>
       <c r="C25" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D25" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E25" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>337.591684072473</v>
+        <v>310.875795404867</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>627.823383688736</v>
+        <v>643.610045174139</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>116.578423276825</v>
+        <v>58.2892116384126</v>
       </c>
     </row>
     <row r="26">
@@ -8768,25 +8758,25 @@
         <v>59</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44133</v>
+        <v>44138</v>
       </c>
       <c r="C26" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D26" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E26" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>369.849625972309</v>
+        <v>430.159093468775</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>262.673162650274</v>
+        <v>371.666176198106</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0</v>
+        <v>30.8813538385523</v>
       </c>
     </row>
     <row r="27">
@@ -8794,45 +8784,51 @@
         <v>60</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44133</v>
+        <v>44138</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="D27" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="E27" t="s">
-        <v>112</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>1008.22532402792</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>91.6001994017946</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>61</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44133</v>
+        <v>44138</v>
       </c>
       <c r="C28" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D28" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E28" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>295.478041259609</v>
+        <v>486.143653839963</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>538.013285780209</v>
+        <v>868.905765399021</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0</v>
+        <v>91.5767294945036</v>
       </c>
     </row>
     <row r="29">
@@ -8840,123 +8836,111 @@
         <v>62</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44133</v>
+        <v>44138</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="D29" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="E29" t="s">
-        <v>112</v>
-      </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>392.32867982395</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>882.526152874469</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>71.1255764727973</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>63</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44133</v>
+        <v>44138</v>
       </c>
       <c r="C30" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="D30" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="E30" t="s">
-        <v>142</v>
-      </c>
-      <c r="F30" s="2" t="n">
-        <v>425.033376018309</v>
-      </c>
-      <c r="G30" s="2" t="n">
-        <v>923.630220962864</v>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>84.461760619023</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
         <v>64</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44136</v>
+        <v>44138</v>
       </c>
       <c r="C31" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="D31" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="E31" t="s">
-        <v>145</v>
-      </c>
-      <c r="F31" s="2" t="n">
-        <v>830.085281543365</v>
-      </c>
-      <c r="G31" s="2" t="n">
-        <v>561.546544644254</v>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>252.143217347453</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>65</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44133</v>
+        <v>44138</v>
       </c>
       <c r="C32" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="D32" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E32" t="s">
-        <v>95</v>
-      </c>
-      <c r="F32" s="2" t="n">
-        <v>1667.60726430794</v>
-      </c>
-      <c r="G32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="2" t="n">
-        <v>0</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>66</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44133</v>
+        <v>44138</v>
       </c>
       <c r="C33" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D33" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E33" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>414.440387960076</v>
+        <v>394.070917096254</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>137.885648924335</v>
+        <v>213.879444070134</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>288.306356841792</v>
+        <v>193.509973206311</v>
       </c>
     </row>
     <row r="34">
@@ -8964,25 +8948,25 @@
         <v>67</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44133</v>
+        <v>44138</v>
       </c>
       <c r="C34" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D34" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E34" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>446.963667960566</v>
+        <v>520.439817446525</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>826.428026181157</v>
+        <v>938.039011872473</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>198.859852852804</v>
+        <v>105.504214646506</v>
       </c>
     </row>
   </sheetData>
